--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2394.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2394.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.067460278997455</v>
+        <v>1.072359800338745</v>
       </c>
       <c r="B1">
-        <v>2.349778387216749</v>
+        <v>2.417393684387207</v>
       </c>
       <c r="C1">
-        <v>7.279256734314534</v>
+        <v>5.0977783203125</v>
       </c>
       <c r="D1">
-        <v>1.78648363405334</v>
+        <v>2.294564008712769</v>
       </c>
       <c r="E1">
-        <v>1.000411354328745</v>
+        <v>1.302074432373047</v>
       </c>
     </row>
   </sheetData>
